--- a/Data/DataBooks.xlsx
+++ b/Data/DataBooks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pu61qgw\Documents\GitHub\P_WEB295\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDA099F-1A6A-4304-865F-48770FE3434E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DCD052-D3B2-4BE6-806B-BDD1B8C7B474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -382,10 +382,7 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -409,9 +406,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,347 +710,347 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="2:10" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>328</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>423</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>320</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>384</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>96</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="129" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>1488</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>576</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>123</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>1248</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="186" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>864</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>320</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>224</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>720</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>127</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>400</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
